--- a/biology/Zoologie/Cedicus/Cedicus.xlsx
+++ b/biology/Zoologie/Cedicus/Cedicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cedicus est un genre d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cedicus est un genre d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie et dans le Sud-Est de l'Europe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie et dans le Sud-Est de l'Europe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24, 01/06/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24, 01/06/2023) :
 Cedicus bucculentus Simon, 1889
 Cedicus dubius Strand, 1907
 Cedicus flavipes Simon, 1875
@@ -577,9 +593,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Simon en 1875 dans les Agelenidae. Il est placé dans les Desidae par Lehtinen en 1967[2], dans les Cybaeidae par Levy en 1996[3] puis dans les Desidae par Marusik, Zonstein et Koponen en 2023[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Simon en 1875 dans les Agelenidae. Il est placé dans les Desidae par Lehtinen en 1967, dans les Cybaeidae par Levy en 1996 puis dans les Desidae par Marusik, Zonstein et Koponen en 2023.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1875 : Les arachnides de France. Paris, vol. 2, p. 1-350.</t>
         </is>
